--- a/Assets/StreamingAssets/NPC_Dialogue_Group/Excels/301102.xlsx
+++ b/Assets/StreamingAssets/NPC_Dialogue_Group/Excels/301102.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,40 +140,40 @@
     <t>好的</t>
   </si>
   <si>
+    <t>那等你好了再来找我吧</t>
+  </si>
+  <si>
+    <t>请注意时间，夜晚的大兴安岭很冷的</t>
+  </si>
+  <si>
+    <t>我很快就回来</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>Receiving</t>
+  </si>
+  <si>
+    <t>接取</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
     <t>Complete</t>
-  </si>
-  <si>
-    <t>那等你好了再来找我吧</t>
-  </si>
-  <si>
-    <t>请注意时间，夜晚的大兴安岭很冷的</t>
-  </si>
-  <si>
-    <t>我很快就回来</t>
-  </si>
-  <si>
-    <t>Mission</t>
-  </si>
-  <si>
-    <t>任务</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>Receiving</t>
-  </si>
-  <si>
-    <t>接取</t>
-  </si>
-  <si>
-    <t>Continue</t>
-  </si>
-  <si>
-    <t>继续</t>
   </si>
   <si>
     <t>完成</t>
@@ -216,13 +216,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -704,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,34 +722,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,98 +758,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +863,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1214,7 +1223,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1505,10 +1514,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="3">
-        <v>102</v>
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1522,7 +1531,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -1539,7 +1548,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -1556,7 +1565,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -1585,7 +1594,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1600,35 +1609,35 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>53</v>

--- a/Assets/StreamingAssets/NPC_Dialogue_Group/Excels/301102.xlsx
+++ b/Assets/StreamingAssets/NPC_Dialogue_Group/Excels/301102.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,6 +140,9 @@
     <t>好的</t>
   </si>
   <si>
+    <t>Complete</t>
+  </si>
+  <si>
     <t>那等你好了再来找我吧</t>
   </si>
   <si>
@@ -171,9 +174,6 @@
   </si>
   <si>
     <t>继续</t>
-  </si>
-  <si>
-    <t>Complete</t>
   </si>
   <si>
     <t>完成</t>
@@ -216,19 +216,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -710,10 +704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,33 +716,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,101 +755,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,9 +857,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,7 +1214,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1514,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4">
-        <v>301</v>
+        <v>41</v>
+      </c>
+      <c r="G12" s="3">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1531,7 +1522,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -1548,7 +1539,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -1565,7 +1556,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -1594,7 +1585,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1609,35 +1600,35 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>53</v>

--- a/Assets/StreamingAssets/NPC_Dialogue_Group/Excels/301102.xlsx
+++ b/Assets/StreamingAssets/NPC_Dialogue_Group/Excels/301102.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>110102</t>
   </si>
   <si>
     <t>那等你好了再来找我吧</t>
@@ -1214,7 +1217,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1507,8 +1510,8 @@
       <c r="F12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="3">
-        <v>102</v>
+      <c r="G12" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1522,7 +1525,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -1539,7 +1542,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -1556,7 +1559,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -1600,30 +1603,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1631,41 +1634,41 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="6:6">
